--- a/Project Development Phase/User Acceptance Test & output/Testcases Report.xlsx
+++ b/Project Development Phase/User Acceptance Test & output/Testcases Report.xlsx
@@ -107,7 +107,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://phishingshield.herokuapp.com/</t>
+    <t xml:space="preserve">index.html</t>
   </si>
   <si>
     <t xml:space="preserve">Display the homepage</t>
@@ -1443,10 +1443,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1460,7 +1460,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.86"/>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G7" s="9" t="str">
         <f aca="false">G6</f>
-        <v>https://phishingshield.herokuapp.com/</v>
+        <v>index.html</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>36</v>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="G8" s="9" t="str">
         <f aca="false">G7</f>
-        <v>https://phishingshield.herokuapp.com/</v>
+        <v>index.html</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>42</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="G9" s="9" t="str">
         <f aca="false">G8</f>
-        <v>https://phishingshield.herokuapp.com/</v>
+        <v>index.html</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>46</v>
@@ -29624,9 +29624,6 @@
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="G1:N4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="https://phishingshield.herokuapp.com/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -29634,7 +29631,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
